--- a/xmlreader/Test.xlsx
+++ b/xmlreader/Test.xlsx
@@ -2,50 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="泰语组" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>李强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>497232807@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,7 +60,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -396,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -407,47 +374,65 @@
     <col min="2" max="2" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:497232807@qq.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="497232807@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -468,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
